--- a/Demographics-Control.xlsx
+++ b/Demographics-Control.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedal-saber/Desktop/Hessa Al-Jarrallah/Demographics (Control)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedal-saber/Desktop/Hessa Al-Jarrallah/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A559C0C-679F-B24E-9A33-74C3C77B2200}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D49F36-6D24-BA4E-92D3-05D40F10074B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29140" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,51 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
-  <si>
-    <t>Participant ID.</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age Pre</t>
-  </si>
-  <si>
-    <t>Age Post</t>
-  </si>
-  <si>
-    <t>BMI Pre</t>
-  </si>
-  <si>
-    <t>BMI Post</t>
-  </si>
-  <si>
-    <t>Menopause</t>
-  </si>
-  <si>
-    <t>Season Pre</t>
-  </si>
-  <si>
-    <t>Season Post</t>
-  </si>
-  <si>
-    <t>Max. Temp. Pre</t>
-  </si>
-  <si>
-    <t>Min. Temp. Pre</t>
-  </si>
-  <si>
-    <t>Max. Temp. Post</t>
-  </si>
-  <si>
-    <t>Min. Temp. Post.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Age1</t>
+  </si>
+  <si>
+    <t>Age2</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Meno</t>
+  </si>
+  <si>
+    <t>BMI1</t>
+  </si>
+  <si>
+    <t>BMI2</t>
+  </si>
+  <si>
+    <t>Season1</t>
+  </si>
+  <si>
+    <t>Season2</t>
+  </si>
+  <si>
+    <t>MAX_T1</t>
+  </si>
+  <si>
+    <t>MIN_T1</t>
+  </si>
+  <si>
+    <t>MAX_T2</t>
+  </si>
+  <si>
+    <t>MIN_T2</t>
   </si>
 </sst>
 </file>
@@ -406,10 +403,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -418,42 +415,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -496,8 +493,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -540,8 +537,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -569,8 +566,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -595,8 +592,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>55</v>
@@ -636,8 +633,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -665,8 +662,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -709,8 +706,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -753,8 +750,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -797,8 +794,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>56</v>
@@ -838,8 +835,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -882,8 +879,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -926,8 +923,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>22</v>
@@ -970,8 +967,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -1014,8 +1011,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>39</v>
@@ -1043,8 +1040,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>41</v>
@@ -1087,8 +1084,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>59</v>
@@ -1131,8 +1128,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
         <v>36</v>
@@ -1172,8 +1169,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>27</v>
@@ -1216,8 +1213,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21">
         <v>31</v>
@@ -1260,8 +1257,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>44</v>
@@ -1304,8 +1301,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23">
         <v>51</v>
@@ -1348,8 +1345,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24">
         <v>58</v>
@@ -1389,8 +1386,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25">
         <v>42</v>
@@ -1430,8 +1427,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>63</v>
@@ -1474,8 +1471,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27">
         <v>66</v>
@@ -1518,8 +1515,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28">
         <v>46</v>
@@ -1562,8 +1559,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -1606,8 +1603,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>19</v>
@@ -1635,8 +1632,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>22</v>
@@ -1676,8 +1673,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>36</v>
@@ -1720,8 +1717,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33">
         <v>26</v>
@@ -1764,8 +1761,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34">
         <v>29</v>
@@ -1808,8 +1805,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35">
         <v>19</v>
@@ -1837,8 +1834,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36">
         <v>46</v>
@@ -1881,8 +1878,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37">
         <v>38</v>
@@ -1907,8 +1904,8 @@
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>57</v>
